--- a/reverseprimer-v3_15.xlsx
+++ b/reverseprimer-v3_15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_15" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R1345-TCATGTTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATGTTCTCGTCTCGTGGGCTCGG</t>
+    <t>R1345-CATCACCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCACCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R1346-GTCTTGACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTTGACGAGTCTCGTGGGCTCGG</t>
+    <t>R1346-TGTCTGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCTGACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R1347-AGTGTCTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGTCTCTTGTCTCGTGGGCTCGG</t>
+    <t>R1347-AAGAGTAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAGTAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R1348-ACTTCTGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTCTGCAAGTCTCGTGGGCTCGG</t>
+    <t>R1348-CTCAAGCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAAGCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R1349-GGATGTGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATGTGAAGGTCTCGTGGGCTCGG</t>
+    <t>R1349-GGTACTAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTACTAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R1350-CGATGATGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGATGATGCAGTCTCGTGGGCTCGG</t>
+    <t>R1350-CTAGATGCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGATGCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R1351-ACAGGACGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGGACGTTGTCTCGTGGGCTCGG</t>
+    <t>R1351-TACAAGCTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAAGCTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R1352-AAGCTACTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTACTCGGTCTCGTGGGCTCGG</t>
+    <t>R1352-AGTTCAAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTCAAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R1353-AGAGACAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGACAGCTGTCTCGTGGGCTCGG</t>
+    <t>R1353-TCCAGTGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAGTGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R1354-GACACAAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACACAAGTTGTCTCGTGGGCTCGG</t>
+    <t>R1354-TTGCAACAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCAACAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R1355-GTTGCAACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGCAACCAGTCTCGTGGGCTCGG</t>
+    <t>R1355-CAACGAACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACGAACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R1356-TACGACGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGACGTAGGTCTCGTGGGCTCGG</t>
+    <t>R1356-AAGAGCTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAGCTACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R1357-AAGACTCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACTCACTGTCTCGTGGGCTCGG</t>
+    <t>R1357-AGCATCGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCATCGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R1358-ACACACTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACACTCCAGTCTCGTGGGCTCGG</t>
+    <t>R1358-ACACAAGGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACAAGGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R1359-TCAGCTGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGCTGTGTGTCTCGTGGGCTCGG</t>
+    <t>R1359-TCTCCAACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCCAACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R1360-CTGTCTAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTCTAGTGGTCTCGTGGGCTCGG</t>
+    <t>R1360-GACTCGACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTCGACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R1361-TGTAGCACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTAGCACTAGTCTCGTGGGCTCGG</t>
+    <t>R1361-CTCATGAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCATGAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R1362-ACTCCATCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCCATCACGTCTCGTGGGCTCGG</t>
+    <t>R1362-CTAGCACCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGCACCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R1363-ACTTGAGGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTGAGGTCGTCTCGTGGGCTCGG</t>
+    <t>R1363-TCATCCAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATCCAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R1364-AGAGTGCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGTGCTTGGTCTCGTGGGCTCGG</t>
+    <t>R1364-TCTGATCGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGATCGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R1365-GAGTCACCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTCACCATGTCTCGTGGGCTCGG</t>
+    <t>R1365-CTAGTGAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGTGAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R1366-TGATCTCAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATCTCAGGGTCTCGTGGGCTCGG</t>
+    <t>R1366-TGGTTCGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTTCGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R1367-GAGTCTCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTCTCAACGTCTCGTGGGCTCGG</t>
+    <t>R1367-ACAAGTGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGTGCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R1368-ACAGTGGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTGGTGAGTCTCGTGGGCTCGG</t>
+    <t>R1368-ATGAGTGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAGTGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R1369-ACTGCACCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGCACCAAGTCTCGTGGGCTCGG</t>
+    <t>R1369-TTCTGTCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTGTCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R1370-TCACACCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACACCAACGTCTCGTGGGCTCGG</t>
+    <t>R1370-ATCGAGGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGAGGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R1371-TCCTAGCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTAGCAGTGTCTCGTGGGCTCGG</t>
+    <t>R1371-TTCGTGTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGTGTACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R1372-CATGTCTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGTCTCAAGTCTCGTGGGCTCGG</t>
+    <t>R1372-TACATCGTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACATCGTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R1373-TTCCTAGTGT</t>
+    <t>R1373-CGTAGAACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTAGAACAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R1374-GACCAGTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACCAGTGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R1375-AGCATCAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCATCAAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R1376-TGAAGTCGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAAGTCGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R1377-TGATGCTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATGCTCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R1378-GTGTGCACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTGCACAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R1379-AGAGAGTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGAGTACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R1380-ATCTGAGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTGAGATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R1381-CTAGGAACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGGAACTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R1382-TCATCACTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATCACTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R1383-GTGGTACTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGGTACTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R1384-GAACTCTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACTCTAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R1385-AGCTGGTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTGGTGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R1386-GTGTGTCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTGTCACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R1387-CTCGTTGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCGTTGTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R1388-GTGAGATGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAGATGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R1389-TCAAGACGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGACGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R1390-GTCGTAGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCGTAGATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R1391-TTCCAGTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCAGTAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R1392-GTAGACGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGACGAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R1393-CTTGAGGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGAGGTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R1394-GACTAGTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTAGTAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R1395-CCTCTAGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTCTAGTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R1396-ATGAGAAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAGAAGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R1397-TTCCAACGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCAACGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R1398-GTGAAGTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAAGTTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R1399-AACACGTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACGTCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R1400-ATGACTCCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGACTCCTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R1401-ATGCAAGACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCAAGACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R1402-TGATCTGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATCTGTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R1403-CTGTTCTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTTCTAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R1404-TACCAGTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCAGTTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R1405-TCGTCTGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTCTGAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R1406-TTCCAAGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCAAGCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R1407-TAGCAGGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCAGGTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R1408-CTACAACGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACAACGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R1409-TAGGATGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGATGTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R1410-ACAGTGCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTGCAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R1411-CTCCTAGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCCTAGGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R1412-TAGCAAGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCAAGGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R1413-AAGAGCTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAGCTTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R1414-TCCATGTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCATGTGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R1415-CTTCTCAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCTCAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R1416-GCTACGTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTACGTTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R1417-CATCCTCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCCTCAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R1418-TAGATCTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGATCTCAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R1419-GTCAGTACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAGTACGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R1420-CAACACAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACACAGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R1421-AGTAGTTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTAGTTGGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R1422-GAGGTCAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGGTCAGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R1423-TCAAGCTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGCTACGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>R1424-CCTTCTTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTCTTCCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>R1425-GCACAGTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCACAGTAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>R1426-TTCTCTGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTCTGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>R1427-TTGGTCTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGTCTCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>R1428-AGATCAGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATCAGTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>R1429-TCTCACCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCACCTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>R1430-TGTACCTTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTACCTTGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>R1431-AGTGCACTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGCACTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>R1432-AGTCACAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCACAAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>R1433-CTGTCATCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTCATCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>R1434-CTCAGGATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAGGATGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>R1435-CTACCTCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACCTCTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>R1436-TTCCTAGTGT</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTTCCTAGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R1374-AGAAGACAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAAGACAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R1375-ACTGAGATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGAGATGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R1376-GAGCTCACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGCTCACTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R1377-GAAGAGGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGAGGTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R1378-TGTTCCAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTCCAAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R1379-CTTGGAGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGGAGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R1380-CAGGATCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGGATCAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R1381-ATCAACGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAACGACGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R1382-TACTCTGTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTCTGTGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R1383-ACTTCCAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTCCAGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R1384-TCACACTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACACTCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R1385-TAGACAGAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACAGAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R1386-CCTAGATGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTAGATGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R1387-TGTGTCTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGTCTTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R1388-TCGAAGAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGAAGAGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R1389-ACAACCTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACCTTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R1390-CGTTGTTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTTGTTGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R1391-AGGTACCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTACCTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R1392-AGGATCACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGATCACAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R1393-TGTCTCTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCTCTGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R1394-CCTTGATCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTGATCAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R1395-AACACTGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACTGGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R1396-AGAACGAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAACGAGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R1397-TCCAGGTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAGGTCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R1398-AGTCACCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCACCATGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R1399-GGTAGCTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTAGCTCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R1400-TCAGAACACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGAACACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R1401-AACGACAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGACAGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R1402-ACACGAAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACGAAGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R1403-AGCAGACTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCAGACTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R1404-AGTCGACTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCGACTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R1405-ACACTCTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTCTGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R1406-CTCGATGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCGATGAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R1407-TCTGAAGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGAAGACGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R1408-TGACCAAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACCAAGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R1409-ACGATGATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGATGATCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R1410-TACGTCAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGTCAGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R1411-AGACATCCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACATCCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R1412-AACTGTCCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTGTCCTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R1413-TAGGTGCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGTGCTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R1414-CTTCGTCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCGTCAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R1415-ACAGTCTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTCTAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R1416-CTAGTCTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGTCTACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R1417-AACAGACACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGACACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R1418-CACATGAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACATGAGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R1419-ACAACATCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACATCGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R1420-ATCGAAGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGAAGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R1421-TAGACTTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACTTGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R1422-TCCTTCCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTTCCAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R1423-TACAGGTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAGGTCCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>R1424-CACAACTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACAACTGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>R1425-TTGAACAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGAACAGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>R1426-TCAGACTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGACTGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>R1427-GTTCACCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCACCTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>R1428-GAACACAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACACAAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>R1429-CTACGAAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACGAAGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>R1430-AGAGTGGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGTGGTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>R1431-CAGTGAACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTGAACCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>R1432-TGCTGATCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTGATCTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>R1433-TCGTGTAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTGTAGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>R1434-CTGTTCGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTTCGTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>R1435-AGAGGTCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGGTCTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>R1436-TCAGCAACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGCAACTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R1437-CTACGTACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACGTACAGGTCTCGTGGGCTCGG</t>
+    <t>R1437-AACGTCCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTCCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R1438-CTCTACATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTACATCAGTCTCGTGGGCTCGG</t>
+    <t>R1438-GAACTACTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACTACTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R1439-ATGACCTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGACCTAGGGTCTCGTGGGCTCGG</t>
+    <t>R1439-GTAGCTGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGCTGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R1440-GAACCATCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACCATCGAGTCTCGTGGGCTCGG</t>
+    <t>R1440-AACACTACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACTACGAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
